--- a/data/post_commercial_filter/discarded_suggestions.xlsx
+++ b/data/post_commercial_filter/discarded_suggestions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>concatenated</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sum_similarity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -472,6 +477,9 @@
           <t>Commerce-Vente de tenues traditionnelles Algériennes ainsi que les bijoux et les accessoires de maison.</t>
         </is>
       </c>
+      <c r="E2" t="n">
+        <v>149.2233581542969</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,6 +502,9 @@
           <t>Créer sa propre marque de parfum (e-commerce)-Développer toutes une gamme de produits parfumés de qualité ( eau de parfum , brume pour le corps , brume de ligne .. etc )</t>
         </is>
       </c>
+      <c r="E3" t="n">
+        <v>179.3935852050781</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +527,9 @@
           <t>تجارة الخردوات والعقاقير-والعقاقير النشاط متمث في بيع الخردوات</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>213.6558685302734</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -538,6 +552,9 @@
           <t>Coiffure esthétique-Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>133.9035034179688</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -560,6 +577,9 @@
           <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة-انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
         </is>
       </c>
+      <c r="E6" t="n">
+        <v>346.0107421875</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -584,6 +604,9 @@
 أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
         </is>
       </c>
+      <c r="E7" t="n">
+        <v>256.4198303222656</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -607,6 +630,9 @@
           <t>تركيب الهوائيات المقعرة montage parabole-اعمال التركيب _x000D_
 وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
         </is>
+      </c>
+      <c r="E8" t="n">
+        <v>406.7727966308594</v>
       </c>
     </row>
     <row r="9">
@@ -640,6 +666,9 @@
 -Conseiller les entrepreneurs sur la gestion du centre après ouverture</t>
         </is>
       </c>
+      <c r="E9" t="n">
+        <v>362.5873107910156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
